--- a/TMOOC/智能硬件/001-智能血压计/V1.0/05-STM32F407 的存储器模型/发布/05-STM32F407 的存储器模型.xlsx
+++ b/TMOOC/智能硬件/001-智能血压计/V1.0/05-STM32F407 的存储器模型/发布/05-STM32F407 的存储器模型.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\微云同步盘\2597212781\T430\D\MOOC\智能硬件\001-智能血压计\V1.0\05-STM32F407 的存储器模型\发布\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\微云同步盘\2597212781\T430\D\work\work\TMOOC\智能硬件\001-智能血压计\V1.0\05-STM32F407 的存储器模型\发布\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>分类</t>
   </si>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t>在学习、使用一款新的微处理器时，从哪里先入手，每个人都有自己的习惯。我通常是先了解它的存储器映射、以及其启动流程。了解了微处理器的存储器映射和其启动流程，就可以知道将程序放到哪里运行，程序中使用的变量大概在什么地址范围，以及片上设备的寄存器在哪里等等。同时我们还能知道哪个区域是可以重新映射的，在系统开发时可以灵活处理。本课程主要学习STM32F407的存储器映射和启动方式的选择。另外，本课程还将介绍了STM32F407的存储器重映射、以及位带区概念。好，一起来学习一下本节课的内容吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32F407采用的是ARM Cortex-M4核心，其存储器空间的组织是在M4框架下的。STM32F407支持的最大寻址空间是4G Bytes，Flash、RAM、片上设备寄存器均统一编址在这4G范围内。本课程所选STM32F407的型号内部集成了192K内存，1M字节Flash。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32F407支持多种自举方式，如：从芯片内部Flash启动；从系统存储器启动，从RAM启动等。STM32F407启动时默认中地址0获得栈顶位置，从地址4获得第一天指令，即默认异常向量表在地址0处。针对不同的启动方式，STM32F407地址0能访问的设备是不同的（地址映射）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARM Cortex-M4为了能以原子操作的方式修改一个字节的某个位，其设计了位带区的功能。STM32F407将M4的两个位带区进行了分配，一个是内存区，一个是片上设备的寄存器区，这样当需要修改某个寄存器的某位标志时，就可以原子操作方式高效的完成。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -702,9 +714,15 @@
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
